--- a/ePICreator/Dovato.xlsx
+++ b/ePICreator/Dovato.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/vulcan-eproduct-info/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7CAEC9-6AD8-9545-80DA-36C0FE479BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC217997-C01B-DF49-9834-17CCEA68C213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="21100" firstSheet="6" activeTab="9" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="7" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="181">
   <si>
     <t>id</t>
   </si>
@@ -1452,8 +1452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1B07EB-5F76-7E4B-ABAA-4F88BE5E2A71}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1589,8 +1589,8 @@
       <c r="E4" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>28</v>
+      <c r="F4" s="9">
+        <v>220000000032</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>30</v>
@@ -1621,7 +1621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05DE958-7C5A-B14B-9983-3CEB258B5640}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>

--- a/ePICreator/Dovato.xlsx
+++ b/ePICreator/Dovato.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/vulcan-eproduct-info/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC217997-C01B-DF49-9834-17CCEA68C213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D6D7E1-4AC4-1344-8561-6464F1FA3E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="9" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="7" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="182">
   <si>
     <t>id</t>
   </si>
@@ -529,12 +529,6 @@
   </si>
   <si>
     <t>ViiV Healthcare BV</t>
-  </si>
-  <si>
-    <t>Prospecto Dovato 50 mg/300 mg comprimidos recubiertos con película</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dovato 50 mg/300 mg film-coated tablets</t>
   </si>
   <si>
     <t>2022-04-29T13:28:17Z</t>
@@ -989,12 +983,21 @@
   <si>
     <t>en</t>
   </si>
+  <si>
+    <t>https://spor.ema.europa.eu/pmswi|https://www.who-umc.org/phpid</t>
+  </si>
+  <si>
+    <t>EU/1/19/1370/001|0x073AF2E5B92AE19E8B67635AFFB3D6CA</t>
+  </si>
+  <si>
+    <t>Dovato 50 mg/300 mg comprimidos recubiertos con película</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1090,6 +1093,14 @@
       <color theme="1"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1108,10 +1119,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1136,8 +1148,10 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1452,8 +1466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1B07EB-5F76-7E4B-ABAA-4F88BE5E2A71}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1621,8 +1635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05DE958-7C5A-B14B-9983-3CEB258B5640}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1687,7 +1701,7 @@
     <row r="2" spans="1:16" ht="409.6">
       <c r="A2" s="1"/>
       <c r="B2" s="9" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>105</v>
@@ -1699,76 +1713,76 @@
         <v>53</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>108</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I2" t="s">
         <v>109</v>
       </c>
       <c r="J2" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" ht="409.6">
       <c r="B3" s="9" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E3" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="H3" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="I3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="L3" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="M3" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="O3" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1829,7 +1843,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2015,16 +2029,16 @@
         <v>1</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H2" t="s">
         <v>40</v>
       </c>
       <c r="I2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K2" t="s">
         <v>41</v>
@@ -2050,16 +2064,16 @@
         <v>1</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H3" t="s">
         <v>40</v>
       </c>
       <c r="I3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K3" t="s">
         <v>41</v>
@@ -2315,31 +2329,31 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EB2795-F6E7-D149-BA96-099EC7B435E4}">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="47.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.1640625" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1"/>
-    <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="27.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2347,97 +2361,103 @@
         <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>25</v>
-      </c>
-      <c r="H1" t="s">
-        <v>26</v>
       </c>
       <c r="I1" t="s">
         <v>26</v>
       </c>
       <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
         <v>89</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>27</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>60</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>91</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>92</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>93</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" s="15"/>
       <c r="B2" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="12">
-        <v>498163</v>
-      </c>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="K2" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="L2" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="M2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="N2" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="O2" s="19" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -2452,8 +2472,9 @@
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
       <c r="N3" s="13"/>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="O3" s="13"/>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -2468,8 +2489,9 @@
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="O4" s="13"/>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -2484,8 +2506,9 @@
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
       <c r="N5" s="13"/>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="O5" s="13"/>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -2500,8 +2523,12 @@
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{08E51872-A833-F148-8BE2-EAB6AAAA2710}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
